--- a/public/static/双人赛报名表.xlsx
+++ b/public/static/双人赛报名表.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F75CE-E205-4F4D-A228-C3699E6924AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C20F3F-126F-4C0D-B90B-B1E1EB731DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="3990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="3555" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>参赛号</t>
   </si>
@@ -25,65 +23,389 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
     <t>地区/单位</t>
   </si>
   <si>
-    <t>电话</t>
+    <t>周鸿宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴具有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李阿达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙傲视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱柯南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵欧拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑爱惜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈二维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚安卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫头等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋女版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈按成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡新吴区金城东路333号工业博览园28栋301室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔷薇蔷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安宰贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安知晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前十位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决不能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰克曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唠嗑呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咯品尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳朵发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普罗米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨构成曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填表人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320382199012020000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32038219901202000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>填表人</t>
-  </si>
-  <si>
-    <t>填表人电话</t>
-  </si>
-  <si>
-    <t>钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双人赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901</t>
+  </si>
+  <si>
+    <t>12345678902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者5号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者7号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者9号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者10号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者11号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者12号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者14号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者15号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛者16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA的联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,17 +474,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashDotDot">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="dashDotDot">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -501,13 +841,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -517,138 +861,454 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>